--- a/medicine/Mort/Dulce_et_decorum_est_pro_patria_mori/Dulce_et_decorum_est_pro_patria_mori.xlsx
+++ b/medicine/Mort/Dulce_et_decorum_est_pro_patria_mori/Dulce_et_decorum_est_pro_patria_mori.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Dulce et decorum est pro patria mori est une expression latine utilisée parfois en français, tirée d'une strophe du poète Horace, qui signifie « Il est doux et honorable de mourir pour sa patrie ».
@@ -512,10 +524,12 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>On la trouve par exemple :
-Sur le mur de la chapelle de l'Académie royale militaire de Sandhurst, l'école de formation des officiers de l’Armée de terre britannique[1].
+Sur le mur de la chapelle de l'Académie royale militaire de Sandhurst, l'école de formation des officiers de l’Armée de terre britannique.
 dans les films américains Johnny s'en va-t-en guerre et À l'Ouest, rien de nouveau.
 dans le clip vidéo de la chanson « Empire » du groupe Kasabian
 dans un poème du poète anglais Wilfred Owen, intitulé justement Dulce Et Decorum Est qui le qualifie le titre du poème d'Horace comme Le Vieux Mensonge dans le contexte de la Première Guerre mondiale.
@@ -553,9 +567,11 @@
           <t>Poème complet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le titre, et l'exhortation latine des deux lignes finales, sont tirés d'un poème d'Horace, les Odes, III.2.13[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le titre, et l'exhortation latine des deux lignes finales, sont tirés d'un poème d'Horace, les Odes, III.2.13.
 Ce texte est bien connu et souvent cité par les partisans de la Première Guerre mondiale, au moins à ses débuts. Il revêtait donc une signification particulière pour les soldats de l'époque. 
         « Dulce et decorum est pro patria mori :
 mors et fugacem persequitur virum
